--- a/artfynd/A 6352-2023.xlsx
+++ b/artfynd/A 6352-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95466542</v>
+        <v>95466567</v>
       </c>
       <c r="B2" t="n">
-        <v>56779</v>
+        <v>89953</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103037</v>
+        <v>1143</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Blekticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Haploporus tuberculosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Fr.) Niemelä &amp; Y.C.Dai</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Linköpings kommun - projekt Ostlänken naturvärdesinventering 2021, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522934.9905954079</v>
+        <v>522705.9994689149</v>
       </c>
       <c r="R2" t="n">
-        <v>6470264.661041581</v>
+        <v>6470426.973864896</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -754,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,12 +763,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På nedfallen gren.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -778,6 +782,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -789,17 +794,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Olle Kvarnbäck</t>
+          <t>Via Hanna Nilsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95466541</v>
+        <v>95466542</v>
       </c>
       <c r="B3" t="n">
-        <v>57064</v>
+        <v>56779</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,20 +813,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103055</v>
+        <v>103037</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -831,7 +836,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -840,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522937.092411738</v>
+        <v>522934.9905954079</v>
       </c>
       <c r="R3" t="n">
-        <v>6470264.673289465</v>
+        <v>6470264.661041581</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -912,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95466539</v>
+        <v>95466541</v>
       </c>
       <c r="B4" t="n">
-        <v>57007</v>
+        <v>57064</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,30 +929,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103042</v>
+        <v>103055</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -956,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522938.1555462508</v>
+        <v>522937.092411738</v>
       </c>
       <c r="R4" t="n">
-        <v>6470262.581484992</v>
+        <v>6470264.673289465</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95466567</v>
+        <v>95466539</v>
       </c>
       <c r="B5" t="n">
-        <v>89953</v>
+        <v>57007</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,41 +1045,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1143</v>
+        <v>103042</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blekticka</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Haploporus tuberculosus</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä &amp; Y.C.Dai</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Linköpings kommun - projekt Ostlänken naturvärdesinventering 2021, Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>522705.9994689149</v>
+        <v>522938.1555462508</v>
       </c>
       <c r="R5" t="n">
-        <v>6470426.973864896</v>
+        <v>6470262.581484992</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1101,7 +1107,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,17 +1117,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På nedfallen gren.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,7 +1131,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Hanna Nilsson</t>
+          <t>Olle Kvarnbäck</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 6352-2023.xlsx
+++ b/artfynd/A 6352-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95466567</v>
+        <v>95466542</v>
       </c>
       <c r="B2" t="n">
-        <v>89953</v>
+        <v>56779</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1143</v>
+        <v>103037</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blekticka</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Haploporus tuberculosus</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä &amp; Y.C.Dai</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Linköpings kommun - projekt Ostlänken naturvärdesinventering 2021, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>522705.9994689149</v>
+        <v>522934.9905954079</v>
       </c>
       <c r="R2" t="n">
-        <v>6470426.973864896</v>
+        <v>6470264.661041581</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,17 +764,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På nedfallen gren.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +778,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -794,17 +789,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Hanna Nilsson</t>
+          <t>Olle Kvarnbäck</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95466542</v>
+        <v>95466541</v>
       </c>
       <c r="B3" t="n">
-        <v>56779</v>
+        <v>57064</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,20 +808,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103037</v>
+        <v>103055</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -836,7 +831,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -845,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522934.9905954079</v>
+        <v>522937.092411738</v>
       </c>
       <c r="R3" t="n">
-        <v>6470264.661041581</v>
+        <v>6470264.673289465</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -917,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95466541</v>
+        <v>95466539</v>
       </c>
       <c r="B4" t="n">
-        <v>57064</v>
+        <v>57007</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,30 +924,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103055</v>
+        <v>103042</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -961,10 +956,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522937.092411738</v>
+        <v>522938.1555462508</v>
       </c>
       <c r="R4" t="n">
-        <v>6470264.673289465</v>
+        <v>6470262.581484992</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1033,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95466539</v>
+        <v>95466567</v>
       </c>
       <c r="B5" t="n">
-        <v>57007</v>
+        <v>89953</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,42 +1040,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103042</v>
+        <v>1143</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Blekticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Haploporus tuberculosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Niemelä &amp; Y.C.Dai</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Linköpings kommun - projekt Ostlänken naturvärdesinventering 2021, Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>522938.1555462508</v>
+        <v>522705.9994689149</v>
       </c>
       <c r="R5" t="n">
-        <v>6470262.581484992</v>
+        <v>6470426.973864896</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1107,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1117,12 +1111,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På nedfallen gren.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1131,6 +1130,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Olle Kvarnbäck</t>
+          <t>Via Hanna Nilsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
